--- a/codigo/resultados/resultados_RS_cv_vs_test_sin_isolation.xlsx
+++ b/codigo/resultados/resultados_RS_cv_vs_test_sin_isolation.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FamiliaNatelloMedina\Documents\UNLu\armado-tesina\codigo\resultados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="resumen_base_vs_aumentado" sheetId="2" r:id="rId2"/>
     <sheet name="rankings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="38">
   <si>
     <t>dataset_logico</t>
   </si>
@@ -87,15 +92,9 @@
     <t>aumentado</t>
   </si>
   <si>
-    <t>LogisticRegression</t>
-  </si>
-  <si>
     <t>RandomForest</t>
   </si>
   <si>
-    <t>SVM</t>
-  </si>
-  <si>
     <t>pcsmote</t>
   </si>
   <si>
@@ -105,34 +104,22 @@
     <t>25</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>proporcion</t>
   </si>
   <si>
     <t>ntropia</t>
   </si>
   <si>
-    <t>{'classifier__C': np.float64(0.013820379228637011), 'classifier__class_weight': 'balanced', 'classifier__fit_intercept': False, 'classifier__l1_ratio': None, 'classifier__penalty': 'l2', 'classifier__tol': np.float64(3.564497907039462e-05)}</t>
-  </si>
-  <si>
-    <t>{'classifier__C': np.float64(27.60391295653003), 'classifier__class_weight': None, 'classifier__fit_intercept': True, 'classifier__l1_ratio': None, 'classifier__penalty': 'l1', 'classifier__tol': np.float64(7.148510793512978e-05)}</t>
-  </si>
-  <si>
-    <t>{'classifier__ccp_alpha': np.float64(0.00034388521115218395), 'classifier__class_weight': 'balanced', 'classifier__criterion': 'gini', 'classifier__max_depth': 40, 'classifier__max_features': 'log2', 'classifier__max_samples': np.float64(0.8318827995238937), 'classifier__min_samples_leaf': 2, 'classifier__min_samples_split': 7, 'classifier__n_estimators': 203}</t>
-  </si>
-  <si>
-    <t>{'classifier__ccp_alpha': np.float64(0.005912977877077272), 'classifier__class_weight': 'balanced', 'classifier__criterion': 'gini', 'classifier__max_depth': 20, 'classifier__max_features': 'sqrt', 'classifier__max_samples': np.float64(0.7340244061638264), 'classifier__min_samples_leaf': 3, 'classifier__min_samples_split': 2, 'classifier__n_estimators': 154}</t>
-  </si>
-  <si>
-    <t>{'classifier__ccp_alpha': np.float64(0.0022855002179729966), 'classifier__class_weight': 'balanced', 'classifier__criterion': 'entropy', 'classifier__max_depth': None, 'classifier__max_features': 'log2', 'classifier__max_samples': np.float64(0.7853777024246023), 'classifier__min_samples_leaf': 2, 'classifier__min_samples_split': 2, 'classifier__n_estimators': 453}</t>
-  </si>
-  <si>
-    <t>{'classifier__C': np.float64(7.264803074826735), 'classifier__class_weight': 'balanced', 'classifier__gamma': np.float64(0.0014926318309209366), 'classifier__kernel': 'linear', 'classifier__shrinking': True}</t>
-  </si>
-  <si>
-    <t>{'classifier__C': np.float64(44.51314315649209), 'classifier__class_weight': None, 'classifier__gamma': np.float64(0.0015224209209544581), 'classifier__kernel': 'linear', 'classifier__shrinking': False}</t>
-  </si>
-  <si>
-    <t>{'classifier__C': np.float64(21.42302175774105), 'classifier__class_weight': 'balanced', 'classifier__gamma': np.float64(0.0003727925903376988), 'classifier__kernel': 'linear', 'classifier__shrinking': False}</t>
+    <t>{'classifier__ccp_alpha': np.float64(0.0012107996913871294), 'classifier__class_weight': 'balanced', 'classifier__criterion': 'gini', 'classifier__max_depth': None, 'classifier__max_features': 'sqrt', 'classifier__max_samples': np.float64(0.8580764576483948), 'classifier__min_samples_leaf': 3, 'classifier__min_samples_split': 8, 'classifier__n_estimators': 293}</t>
+  </si>
+  <si>
+    <t>{'classifier__ccp_alpha': np.float64(0.0005544541040591566), 'classifier__class_weight': 'balanced', 'classifier__criterion': 'gini', 'classifier__max_depth': None, 'classifier__max_features': 'sqrt', 'classifier__max_samples': np.float64(0.750429800583849), 'classifier__min_samples_leaf': 1, 'classifier__min_samples_split': 5, 'classifier__n_estimators': 245}</t>
   </si>
   <si>
     <t>cv_f1_prom</t>
@@ -153,8 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,12 +158,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -206,8 +205,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -217,11 +230,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -263,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,9 +316,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,6 +351,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,76 +527,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="15" max="15" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -587,13 +618,13 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>149</v>
@@ -604,38 +635,38 @@
       <c r="J2">
         <v>9</v>
       </c>
-      <c r="K2">
-        <v>0.4923406223406223</v>
+      <c r="K2" s="5">
+        <v>0.68189097579257762</v>
       </c>
       <c r="L2">
-        <v>0.5648821548821549</v>
+        <v>0.71345117845117856</v>
       </c>
       <c r="M2">
-        <v>0.4263178395256901</v>
+        <v>0.64626516958480429</v>
       </c>
       <c r="N2">
-        <v>0.3764323589243026</v>
-      </c>
-      <c r="O2">
-        <v>0.4056758056758056</v>
+        <v>0.63834745910372592</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.74755010651710796</v>
       </c>
       <c r="P2">
-        <v>0.4775132275132275</v>
+        <v>0.81488382792730629</v>
       </c>
       <c r="Q2">
-        <v>0.3338798132015464</v>
+        <v>0.74194921608687503</v>
       </c>
       <c r="R2">
-        <v>0.2962406015037594</v>
+        <v>0.7356070087609512</v>
       </c>
       <c r="S2" t="s">
         <v>31</v>
       </c>
       <c r="T2">
-        <v>40.96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>81.566999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -646,13 +677,13 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -666,38 +697,38 @@
       <c r="J3">
         <v>9</v>
       </c>
-      <c r="K3">
-        <v>0.7190286984535649</v>
+      <c r="K3" s="5">
+        <v>0.83324869244617772</v>
       </c>
       <c r="L3">
-        <v>0.7343162393162392</v>
+        <v>0.84692307692307689</v>
       </c>
       <c r="M3">
-        <v>0.6328308265183036</v>
+        <v>0.77142146639301035</v>
       </c>
       <c r="N3">
-        <v>0.6274823970587161</v>
-      </c>
-      <c r="O3">
-        <v>0.6117236467236467</v>
+        <v>0.76587207850756367</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.80755571588904929</v>
       </c>
       <c r="P3">
-        <v>0.7341269841269841</v>
+        <v>0.88095238095238093</v>
       </c>
       <c r="Q3">
-        <v>0.4869596471315276</v>
+        <v>0.72864064313819932</v>
       </c>
       <c r="R3">
-        <v>0.474541751527495</v>
+        <v>0.72533711852377569</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
       </c>
       <c r="T3">
-        <v>33.142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>86.706000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -708,13 +739,13 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -728,100 +759,100 @@
       <c r="J4">
         <v>9</v>
       </c>
-      <c r="K4">
-        <v>0.6472003853403153</v>
+      <c r="K4" s="5">
+        <v>0.82672517337734741</v>
       </c>
       <c r="L4">
-        <v>0.6653846153846154</v>
+        <v>0.85</v>
       </c>
       <c r="M4">
-        <v>0.5751854511186278</v>
+        <v>0.80725732242988391</v>
       </c>
       <c r="N4">
-        <v>0.5714761796713044</v>
-      </c>
-      <c r="O4">
-        <v>0.6880816714150048</v>
+        <v>0.80373206565170607</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.74903244903244903</v>
       </c>
       <c r="P4">
-        <v>0.7674603174603174</v>
+        <v>0.81349206349206338</v>
       </c>
       <c r="Q4">
-        <v>0.567389866887189</v>
+        <v>0.67190162944260035</v>
       </c>
       <c r="R4">
-        <v>0.5545580110497238</v>
+        <v>0.66690140845070411</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
       </c>
       <c r="T4">
-        <v>54.967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>83.155000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>149</v>
+        <v>274</v>
       </c>
       <c r="I5">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
-      <c r="K5">
-        <v>0.6659850823809632</v>
+      <c r="K5" s="5">
+        <v>0.83324869244617772</v>
       </c>
       <c r="L5">
-        <v>0.7084006734006734</v>
+        <v>0.84692307692307689</v>
       </c>
       <c r="M5">
-        <v>0.6517619418160383</v>
+        <v>0.77142146639301035</v>
       </c>
       <c r="N5">
-        <v>0.6439012655336074</v>
-      </c>
-      <c r="O5">
-        <v>0.7962347257743677</v>
+        <v>0.76587207850756367</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.80755571588904929</v>
       </c>
       <c r="P5">
-        <v>0.8300667126754083</v>
+        <v>0.88095238095238093</v>
       </c>
       <c r="Q5">
-        <v>0.7774937851746654</v>
+        <v>0.72864064313819932</v>
       </c>
       <c r="R5">
-        <v>0.7722929936305732</v>
+        <v>0.72533711852377569</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5">
-        <v>120.137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>83.846999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -829,22 +860,22 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="I6">
         <v>43</v>
@@ -852,38 +883,38 @@
       <c r="J6">
         <v>9</v>
       </c>
-      <c r="K6">
-        <v>0.8303186006230325</v>
+      <c r="K6" s="5">
+        <v>0.82672517337734741</v>
       </c>
       <c r="L6">
-        <v>0.8443589743589743</v>
+        <v>0.85</v>
       </c>
       <c r="M6">
-        <v>0.7668624423417414</v>
+        <v>0.80725732242988391</v>
       </c>
       <c r="N6">
-        <v>0.7611151390825998</v>
-      </c>
-      <c r="O6">
-        <v>0.786069486069486</v>
+        <v>0.80373206565170607</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.74903244903244903</v>
       </c>
       <c r="P6">
-        <v>0.8690476190476191</v>
+        <v>0.81349206349206338</v>
       </c>
       <c r="Q6">
-        <v>0.7024103623528768</v>
+        <v>0.67190162944260035</v>
       </c>
       <c r="R6">
-        <v>0.6971830985915493</v>
+        <v>0.66690140845070411</v>
       </c>
       <c r="S6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T6">
-        <v>133.466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -891,22 +922,22 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="I7">
         <v>43</v>
@@ -914,100 +945,100 @@
       <c r="J7">
         <v>9</v>
       </c>
-      <c r="K7">
-        <v>0.7979991719092169</v>
+      <c r="K7" s="5">
+        <v>0.83324869244617772</v>
       </c>
       <c r="L7">
-        <v>0.8273504273504273</v>
+        <v>0.84692307692307689</v>
       </c>
       <c r="M7">
-        <v>0.7944608526160726</v>
+        <v>0.77142146639301035</v>
       </c>
       <c r="N7">
-        <v>0.7893392573176966</v>
-      </c>
-      <c r="O7">
-        <v>0.7595238095238095</v>
+        <v>0.76587207850756367</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.80755571588904929</v>
       </c>
       <c r="P7">
-        <v>0.8579365079365079</v>
+        <v>0.88095238095238093</v>
       </c>
       <c r="Q7">
-        <v>0.6804832643686387</v>
+        <v>0.72864064313819932</v>
       </c>
       <c r="R7">
-        <v>0.6715277777777777</v>
+        <v>0.72533711852377569</v>
       </c>
       <c r="S7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T7">
-        <v>131.109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>85.582999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="I8">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>9</v>
       </c>
-      <c r="K8">
-        <v>0.5637344828137667</v>
+      <c r="K8" s="5">
+        <v>0.82672517337734741</v>
       </c>
       <c r="L8">
-        <v>0.5916329966329965</v>
+        <v>0.85</v>
       </c>
       <c r="M8">
-        <v>0.4302473029827955</v>
+        <v>0.80725732242988391</v>
       </c>
       <c r="N8">
-        <v>0.412263535857072</v>
-      </c>
-      <c r="O8">
-        <v>0.6316675527201842</v>
+        <v>0.80373206565170607</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.74903244903244903</v>
       </c>
       <c r="P8">
-        <v>0.6541062801932367</v>
+        <v>0.81349206349206338</v>
       </c>
       <c r="Q8">
-        <v>0.5112373581455452</v>
+        <v>0.67190162944260035</v>
       </c>
       <c r="R8">
-        <v>0.4914234125789948</v>
+        <v>0.66690140845070411</v>
       </c>
       <c r="S8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="T8">
-        <v>1.885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>90.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1015,16 +1046,16 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -1038,38 +1069,38 @@
       <c r="J9">
         <v>9</v>
       </c>
-      <c r="K9">
-        <v>0.7274700607152097</v>
+      <c r="K9" s="5">
+        <v>0.83324869244617772</v>
       </c>
       <c r="L9">
-        <v>0.7327777777777778</v>
+        <v>0.84692307692307689</v>
       </c>
       <c r="M9">
-        <v>0.6375800932123876</v>
+        <v>0.77142146639301035</v>
       </c>
       <c r="N9">
-        <v>0.6310499283474871</v>
-      </c>
-      <c r="O9">
-        <v>0.7067715617715619</v>
+        <v>0.76587207850756367</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.80755571588904929</v>
       </c>
       <c r="P9">
-        <v>0.7999999999999999</v>
+        <v>0.88095238095238093</v>
       </c>
       <c r="Q9">
-        <v>0.5474829159036204</v>
+        <v>0.72864064313819932</v>
       </c>
       <c r="R9">
-        <v>0.5306957708049114</v>
+        <v>0.72533711852377569</v>
       </c>
       <c r="S9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T9">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>83.168000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1077,16 +1108,16 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -1100,35 +1131,655 @@
       <c r="J10">
         <v>9</v>
       </c>
-      <c r="K10">
-        <v>0.6520204496486356</v>
+      <c r="K10" s="5">
+        <v>0.82672517337734741</v>
       </c>
       <c r="L10">
-        <v>0.6619658119658121</v>
+        <v>0.85</v>
       </c>
       <c r="M10">
-        <v>0.600106522543945</v>
+        <v>0.80725732242988391</v>
       </c>
       <c r="N10">
-        <v>0.5954530513378312</v>
-      </c>
-      <c r="O10">
-        <v>0.7476556776556778</v>
+        <v>0.80373206565170607</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.74903244903244903</v>
       </c>
       <c r="P10">
-        <v>0.8182539682539683</v>
+        <v>0.81349206349206338</v>
       </c>
       <c r="Q10">
-        <v>0.6453856707674407</v>
+        <v>0.67190162944260035</v>
       </c>
       <c r="R10">
-        <v>0.6378947368421053</v>
+        <v>0.66690140845070411</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="T10">
-        <v>2.341</v>
+        <v>81.009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <v>274</v>
+      </c>
+      <c r="I11">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.83324869244617772</v>
+      </c>
+      <c r="L11">
+        <v>0.84692307692307689</v>
+      </c>
+      <c r="M11">
+        <v>0.77142146639301035</v>
+      </c>
+      <c r="N11">
+        <v>0.76587207850756367</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0.80755571588904929</v>
+      </c>
+      <c r="P11">
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="Q11">
+        <v>0.72864064313819932</v>
+      </c>
+      <c r="R11">
+        <v>0.72533711852377569</v>
+      </c>
+      <c r="S11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11">
+        <v>83.757000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>261</v>
+      </c>
+      <c r="I12">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="L12">
+        <v>0.85</v>
+      </c>
+      <c r="M12">
+        <v>0.80725732242988391</v>
+      </c>
+      <c r="N12">
+        <v>0.80373206565170607</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="P12">
+        <v>0.81349206349206338</v>
+      </c>
+      <c r="Q12">
+        <v>0.67190162944260035</v>
+      </c>
+      <c r="R12">
+        <v>0.66690140845070411</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12">
+        <v>94.186000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>274</v>
+      </c>
+      <c r="I13">
+        <v>43</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.83324869244617772</v>
+      </c>
+      <c r="L13">
+        <v>0.84692307692307689</v>
+      </c>
+      <c r="M13">
+        <v>0.77142146639301035</v>
+      </c>
+      <c r="N13">
+        <v>0.76587207850756367</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.80755571588904929</v>
+      </c>
+      <c r="P13">
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="Q13">
+        <v>0.72864064313819932</v>
+      </c>
+      <c r="R13">
+        <v>0.72533711852377569</v>
+      </c>
+      <c r="S13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13">
+        <v>82.152000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>261</v>
+      </c>
+      <c r="I14">
+        <v>43</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="L14">
+        <v>0.85</v>
+      </c>
+      <c r="M14">
+        <v>0.80725732242988391</v>
+      </c>
+      <c r="N14">
+        <v>0.80373206565170607</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="P14">
+        <v>0.81349206349206338</v>
+      </c>
+      <c r="Q14">
+        <v>0.67190162944260035</v>
+      </c>
+      <c r="R14">
+        <v>0.66690140845070411</v>
+      </c>
+      <c r="S14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14">
+        <v>97.197999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>274</v>
+      </c>
+      <c r="I15">
+        <v>43</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.83324869244617772</v>
+      </c>
+      <c r="L15">
+        <v>0.84692307692307689</v>
+      </c>
+      <c r="M15">
+        <v>0.77142146639301035</v>
+      </c>
+      <c r="N15">
+        <v>0.76587207850756367</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.80755571588904929</v>
+      </c>
+      <c r="P15">
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="Q15">
+        <v>0.72864064313819932</v>
+      </c>
+      <c r="R15">
+        <v>0.72533711852377569</v>
+      </c>
+      <c r="S15" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15">
+        <v>96.231999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>261</v>
+      </c>
+      <c r="I16">
+        <v>43</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="L16">
+        <v>0.85</v>
+      </c>
+      <c r="M16">
+        <v>0.80725732242988391</v>
+      </c>
+      <c r="N16">
+        <v>0.80373206565170607</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="P16">
+        <v>0.81349206349206338</v>
+      </c>
+      <c r="Q16">
+        <v>0.67190162944260035</v>
+      </c>
+      <c r="R16">
+        <v>0.66690140845070411</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16">
+        <v>92.533000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>274</v>
+      </c>
+      <c r="I17">
+        <v>43</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.83324869244617772</v>
+      </c>
+      <c r="L17">
+        <v>0.84692307692307689</v>
+      </c>
+      <c r="M17">
+        <v>0.77142146639301035</v>
+      </c>
+      <c r="N17">
+        <v>0.76587207850756367</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.80755571588904929</v>
+      </c>
+      <c r="P17">
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="Q17">
+        <v>0.72864064313819932</v>
+      </c>
+      <c r="R17">
+        <v>0.72533711852377569</v>
+      </c>
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17">
+        <v>90.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>261</v>
+      </c>
+      <c r="I18">
+        <v>43</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="L18">
+        <v>0.85</v>
+      </c>
+      <c r="M18">
+        <v>0.80725732242988391</v>
+      </c>
+      <c r="N18">
+        <v>0.80373206565170607</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="P18">
+        <v>0.81349206349206338</v>
+      </c>
+      <c r="Q18">
+        <v>0.67190162944260035</v>
+      </c>
+      <c r="R18">
+        <v>0.66690140845070411</v>
+      </c>
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18">
+        <v>94.591999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <v>274</v>
+      </c>
+      <c r="I19">
+        <v>43</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.83324869244617772</v>
+      </c>
+      <c r="L19">
+        <v>0.84692307692307689</v>
+      </c>
+      <c r="M19">
+        <v>0.77142146639301035</v>
+      </c>
+      <c r="N19">
+        <v>0.76587207850756367</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0.80755571588904929</v>
+      </c>
+      <c r="P19">
+        <v>0.88095238095238093</v>
+      </c>
+      <c r="Q19">
+        <v>0.72864064313819932</v>
+      </c>
+      <c r="R19">
+        <v>0.72533711852377569</v>
+      </c>
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19">
+        <v>87.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>261</v>
+      </c>
+      <c r="I20">
+        <v>43</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="L20">
+        <v>0.85</v>
+      </c>
+      <c r="M20">
+        <v>0.80725732242988391</v>
+      </c>
+      <c r="N20">
+        <v>0.80373206565170607</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="P20">
+        <v>0.81349206349206338</v>
+      </c>
+      <c r="Q20">
+        <v>0.67190162944260035</v>
+      </c>
+      <c r="R20">
+        <v>0.66690140845070411</v>
+      </c>
+      <c r="S20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20">
+        <v>81.691999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -1137,31 +1788,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1"/>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="7"/>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1831,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,91 +1847,42 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.6831145418969401</v>
+        <v>0.82998693291176251</v>
       </c>
       <c r="D4">
-        <v>0.4923406223406223</v>
+        <v>0.68189097579257762</v>
       </c>
       <c r="E4">
-        <v>0.6499026590693258</v>
+        <v>0.77829408246074916</v>
       </c>
       <c r="F4">
-        <v>0.4056758056758056</v>
+        <v>0.74755010651710796</v>
       </c>
       <c r="G4">
-        <v>0.1907739195563178</v>
+        <v>0.14809595711918491</v>
       </c>
       <c r="H4">
-        <v>0.2442268533935201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>0.8141588862661246</v>
-      </c>
-      <c r="D5">
-        <v>0.6659850823809632</v>
-      </c>
-      <c r="E5">
-        <v>0.7727966477966477</v>
-      </c>
-      <c r="F5">
-        <v>0.7962347257743677</v>
-      </c>
-      <c r="G5">
-        <v>0.1481738038851614</v>
-      </c>
-      <c r="H5">
-        <v>-0.02343807797772002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>0.6897452551819226</v>
-      </c>
-      <c r="D6">
-        <v>0.5637344828137667</v>
-      </c>
-      <c r="E6">
-        <v>0.7272136197136199</v>
-      </c>
-      <c r="F6">
-        <v>0.6316675527201842</v>
-      </c>
-      <c r="G6">
-        <v>0.1260107723681559</v>
-      </c>
-      <c r="H6">
-        <v>0.09554606699343571</v>
+        <v>3.07439759436412E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1315,7 +1917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1326,31 +1928,31 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2">
-        <v>0.6880816714150048</v>
+        <v>0.80755571588904929</v>
       </c>
       <c r="I2">
-        <v>0.6472003853403153</v>
+        <v>0.83324869244617772</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1966,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1373,19 +1975,19 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>0.6117236467236467</v>
+        <v>0.80755571588904929</v>
       </c>
       <c r="I3">
-        <v>0.7190286984535649</v>
+        <v>0.83324869244617772</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1399,71 +2001,71 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>0.4056758056758056</v>
+        <v>0.80755571588904929</v>
       </c>
       <c r="I4">
-        <v>0.4923406223406223</v>
+        <v>0.83324869244617772</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>0.7962347257743677</v>
+        <v>0.80755571588904929</v>
       </c>
       <c r="I5">
-        <v>0.6659850823809632</v>
+        <v>0.83324869244617772</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1478,100 +2080,100 @@
         <v>22</v>
       </c>
       <c r="H6">
-        <v>0.786069486069486</v>
+        <v>0.80755571588904929</v>
       </c>
       <c r="I6">
-        <v>0.8303186006230325</v>
+        <v>0.83324869244617772</v>
       </c>
       <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>0.80755571588904929</v>
+      </c>
+      <c r="I7">
+        <v>0.83324869244617772</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <v>0.7595238095238095</v>
-      </c>
-      <c r="I7">
-        <v>0.7979991719092169</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>0.80755571588904929</v>
+      </c>
+      <c r="I8">
+        <v>0.83324869244617772</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8">
-        <v>0.7476556776556778</v>
-      </c>
-      <c r="I8">
-        <v>0.6520204496486356</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -1583,51 +2185,401 @@
         <v>22</v>
       </c>
       <c r="H9">
-        <v>0.7067715617715619</v>
+        <v>0.80755571588904929</v>
       </c>
       <c r="I9">
-        <v>0.7274700607152097</v>
+        <v>0.83324869244617772</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>0.80755571588904929</v>
+      </c>
+      <c r="I10">
+        <v>0.83324869244617772</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="I11">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="I12">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="I13">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="I14">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="I15">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="I16">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="I17">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="I18">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>0.74903244903244903</v>
+      </c>
+      <c r="I19">
+        <v>0.82672517337734741</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="H10">
-        <v>0.6316675527201842</v>
-      </c>
-      <c r="I10">
-        <v>0.5637344828137667</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H20">
+        <v>0.74755010651710796</v>
+      </c>
+      <c r="I20">
+        <v>0.68189097579257762</v>
+      </c>
+      <c r="J20" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
-        <v>36</v>
+      <c r="K20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
